--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_10_3.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_10_3.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_24</t>
+          <t>model_10_3_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999983869620069</v>
+        <v>0.3081948077559231</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6345069841163828</v>
+        <v>-0.2219723986347186</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999549629330664</v>
+        <v>0.1492145652482452</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999739231933609</v>
+        <v>-4.866220129882542</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999880050171214</v>
+        <v>-0.158289070645381</v>
       </c>
       <c r="G2" t="n">
-        <v>9.575690322854571e-07</v>
+        <v>0.4106854465443315</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2169724427047084</v>
+        <v>0.7254156022886427</v>
       </c>
       <c r="I2" t="n">
-        <v>1.546300312023882e-06</v>
+        <v>0.7646390208890572</v>
       </c>
       <c r="J2" t="n">
-        <v>2.379850692772596e-06</v>
+        <v>0.5921783543393948</v>
       </c>
       <c r="K2" t="n">
-        <v>1.963075502398239e-06</v>
+        <v>0.6784086876142259</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003538050131615673</v>
+        <v>0.2946545114910435</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0009785545627533792</v>
+        <v>0.6408474440491524</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00000086028693</v>
+        <v>-1.07541557673223</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001020213656376989</v>
+        <v>0.6681296464794151</v>
       </c>
       <c r="P2" t="n">
-        <v>165.7177360442175</v>
+        <v>33.77985538876158</v>
       </c>
       <c r="Q2" t="n">
-        <v>249.8201679601233</v>
+        <v>53.28186858665279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_23</t>
+          <t>model_10_3_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999982820089579</v>
+        <v>0.3401990153451301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6344533720040184</v>
+        <v>-0.2436078856262327</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999559981495362</v>
+        <v>0.261823447405345</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999745558963417</v>
+        <v>-3.558767419519608</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999882900184266</v>
+        <v>0.04078104221357171</v>
       </c>
       <c r="G3" t="n">
-        <v>1.019873695915826e-06</v>
+        <v>0.3916863664095965</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2170042691705306</v>
+        <v>0.7382593619711795</v>
       </c>
       <c r="I3" t="n">
-        <v>1.510757243628346e-06</v>
+        <v>0.6634323689191159</v>
       </c>
       <c r="J3" t="n">
-        <v>2.322108245703787e-06</v>
+        <v>0.4601946958238718</v>
       </c>
       <c r="K3" t="n">
-        <v>1.916432744666066e-06</v>
+        <v>0.5618135323714939</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003628921576167878</v>
+        <v>0.2874942437332615</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001009887962061052</v>
+        <v>0.6258485171426041</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000000916261889</v>
+        <v>-0.9794029539646099</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001052880983362268</v>
+        <v>0.6524921842023961</v>
       </c>
       <c r="P3" t="n">
-        <v>165.5916635317377</v>
+        <v>33.87458769024172</v>
       </c>
       <c r="Q3" t="n">
-        <v>249.6940954476436</v>
+        <v>53.37660088813293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_22</t>
+          <t>model_10_3_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999981414246268</v>
+        <v>0.3417006986193005</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6343937286319956</v>
+        <v>-0.2697888730041271</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999571481998865</v>
+        <v>0.2720631930686168</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999749445200602</v>
+        <v>-3.399081563916045</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999885190104668</v>
+        <v>0.0623985941183457</v>
       </c>
       <c r="G4" t="n">
-        <v>1.103330627809224e-06</v>
+        <v>0.3907949023487092</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2170396760526228</v>
+        <v>0.7538015270384641</v>
       </c>
       <c r="I4" t="n">
-        <v>1.471271474762008e-06</v>
+        <v>0.6542294503237809</v>
       </c>
       <c r="J4" t="n">
-        <v>2.286641233246571e-06</v>
+        <v>0.4440748596961933</v>
       </c>
       <c r="K4" t="n">
-        <v>1.878956354004289e-06</v>
+        <v>0.5491521550099872</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003803603429334916</v>
+        <v>0.2817998437379759</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001050395462580272</v>
+        <v>0.625135907102375</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000000991240199</v>
+        <v>-0.9748979041420984</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001095112972040677</v>
+        <v>0.6517492368774482</v>
       </c>
       <c r="P4" t="n">
-        <v>165.4343542187661</v>
+        <v>33.87914480608423</v>
       </c>
       <c r="Q4" t="n">
-        <v>249.536786134672</v>
+        <v>53.38115800397544</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_21</t>
+          <t>model_10_3_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999979553267745</v>
+        <v>0.3434597643446563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6343273026190377</v>
+        <v>-0.3097652822487407</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999584124866534</v>
+        <v>0.2916869028108738</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999749640533815</v>
+        <v>-3.108564649628994</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999886570746439</v>
+        <v>0.1024904964877054</v>
       </c>
       <c r="G5" t="n">
-        <v>1.213806351962186e-06</v>
+        <v>0.3897506449464553</v>
       </c>
       <c r="H5" t="n">
-        <v>0.217079109403369</v>
+        <v>0.7775332504570283</v>
       </c>
       <c r="I5" t="n">
-        <v>1.427863518707037e-06</v>
+        <v>0.6365927424176228</v>
       </c>
       <c r="J5" t="n">
-        <v>2.284858561434915e-06</v>
+        <v>0.4147479976962652</v>
       </c>
       <c r="K5" t="n">
-        <v>1.856361040070976e-06</v>
+        <v>0.5256703700569441</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004041564748231863</v>
+        <v>0.2776934951608837</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001101728801458047</v>
+        <v>0.6243001240961396</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000001090492387</v>
+        <v>-0.969620706966031</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00114863167742914</v>
+        <v>0.6508778728583281</v>
       </c>
       <c r="P5" t="n">
-        <v>165.2434987808748</v>
+        <v>33.88449623255202</v>
       </c>
       <c r="Q5" t="n">
-        <v>249.3459306967807</v>
+        <v>53.38650943044323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_20</t>
+          <t>model_10_3_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999977112582937</v>
+        <v>0.3406205229235724</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6342534539409874</v>
+        <v>-0.3547256173875444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999597801732837</v>
+        <v>0.3136513448934439</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999974497866533</v>
+        <v>-2.76391456460077</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999886705552397</v>
+        <v>0.1490433220589006</v>
       </c>
       <c r="G6" t="n">
-        <v>1.358695945342498e-06</v>
+        <v>0.3914361413028539</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2171229491687565</v>
+        <v>0.8042236475807722</v>
       </c>
       <c r="I6" t="n">
-        <v>1.380905437127768e-06</v>
+        <v>0.6168523133947736</v>
       </c>
       <c r="J6" t="n">
-        <v>2.327404227003326e-06</v>
+        <v>0.3799565449965466</v>
       </c>
       <c r="K6" t="n">
-        <v>1.854154832065547e-06</v>
+        <v>0.4984044291956601</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004306352094712239</v>
+        <v>0.2747366247918198</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001165631136055698</v>
+        <v>0.6256485765210802</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000001220662243</v>
+        <v>-0.9781384312292829</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001215254466706682</v>
+        <v>0.6522837316946797</v>
       </c>
       <c r="P6" t="n">
-        <v>165.0179703638779</v>
+        <v>33.8758657794949</v>
       </c>
       <c r="Q6" t="n">
-        <v>249.1204022797837</v>
+        <v>53.37787897738611</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_19</t>
+          <t>model_10_3_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999973949461013</v>
+        <v>0.3129281629253042</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6341711852832868</v>
+        <v>-0.3921587089012837</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999613293121471</v>
+        <v>0.08774766000284528</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999733511093846</v>
+        <v>-4.691377538143123</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999885133109718</v>
+        <v>-0.1903816657070678</v>
       </c>
       <c r="G7" t="n">
-        <v>1.546472526728179e-06</v>
+        <v>0.4078755224454901</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2171717873977885</v>
+        <v>0.8264455477286841</v>
       </c>
       <c r="I7" t="n">
-        <v>1.327717384020298e-06</v>
+        <v>0.8198820849145207</v>
       </c>
       <c r="J7" t="n">
-        <v>2.432060860464065e-06</v>
+        <v>0.574528488505472</v>
       </c>
       <c r="K7" t="n">
-        <v>1.879889122242182e-06</v>
+        <v>0.6972052867099964</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004599167992693776</v>
+        <v>0.2800287364554478</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001243572485514286</v>
+        <v>0.638651330888373</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000001389362079</v>
+        <v>-1.061215511224087</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001296513940772557</v>
+        <v>0.6658400402348004</v>
       </c>
       <c r="P7" t="n">
-        <v>164.7590680195693</v>
+        <v>33.79358648634678</v>
       </c>
       <c r="Q7" t="n">
-        <v>248.8614999354752</v>
+        <v>53.29559968423798</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_18</t>
+          <t>model_10_3_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999969863685466</v>
+        <v>0.3217935688418637</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6340795874777176</v>
+        <v>-0.4986236081276685</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999629921368899</v>
+        <v>0.08745250014202677</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999712999783945</v>
+        <v>-4.385900476571557</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999881158319823</v>
+        <v>-0.1642831270009342</v>
       </c>
       <c r="G8" t="n">
-        <v>1.789021812798123e-06</v>
+        <v>0.4026126345278255</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2172261638119936</v>
+        <v>0.8896477109536443</v>
       </c>
       <c r="I8" t="n">
-        <v>1.27062604585034e-06</v>
+        <v>0.8201473583169125</v>
       </c>
       <c r="J8" t="n">
-        <v>2.619253470938588e-06</v>
+        <v>0.5436914418886233</v>
       </c>
       <c r="K8" t="n">
-        <v>1.944939758394464e-06</v>
+        <v>0.681919400102768</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004925941651656647</v>
+        <v>0.2777792353955211</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001337543200348356</v>
+        <v>0.6345176392566447</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000001607270109</v>
+        <v>-1.034619293474409</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00139448518348331</v>
+        <v>0.661530368792388</v>
       </c>
       <c r="P8" t="n">
-        <v>164.4676831215594</v>
+        <v>33.81956076786894</v>
       </c>
       <c r="Q8" t="n">
-        <v>248.5701150374653</v>
+        <v>53.32157396576015</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_17</t>
+          <t>model_10_3_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999964627848067</v>
+        <v>0.3238023443029329</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6339773428538813</v>
+        <v>-0.581164445755203</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999647256265894</v>
+        <v>0.08255029107225464</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999680946639922</v>
+        <v>-4.296281311786487</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999874039530267</v>
+        <v>-0.1603212225998969</v>
       </c>
       <c r="G9" t="n">
-        <v>2.099843738501468e-06</v>
+        <v>0.4014201386395533</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2172868606374405</v>
+        <v>0.9386475177478775</v>
       </c>
       <c r="I9" t="n">
-        <v>1.211108500728416e-06</v>
+        <v>0.8245531934313768</v>
       </c>
       <c r="J9" t="n">
-        <v>2.911780458866726e-06</v>
+        <v>0.5346446403120251</v>
       </c>
       <c r="K9" t="n">
-        <v>2.061444479797571e-06</v>
+        <v>0.679598916871701</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005288986586045209</v>
+        <v>0.2769099102648281</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001449083758276749</v>
+        <v>0.6335772554626257</v>
       </c>
       <c r="N9" t="n">
-        <v>1.00000188651477</v>
+        <v>-1.028592967091202</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001510774253883501</v>
+        <v>0.6605499509133949</v>
       </c>
       <c r="P9" t="n">
-        <v>164.1472952524817</v>
+        <v>33.82549334575608</v>
       </c>
       <c r="Q9" t="n">
-        <v>248.2497271683876</v>
+        <v>53.32750654364729</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_16</t>
+          <t>model_10_3_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999957946133591</v>
+        <v>0.3250914169290496</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6338634042708864</v>
+        <v>-0.6269203805614656</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999666109867623</v>
+        <v>0.08196857722511386</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999633644493209</v>
+        <v>-4.244919131598131</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999862828279592</v>
+        <v>-0.1563413155645315</v>
       </c>
       <c r="G10" t="n">
-        <v>2.496499173280264e-06</v>
+        <v>0.4006548894436524</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2173544995021969</v>
+        <v>0.9658102172023411</v>
       </c>
       <c r="I10" t="n">
-        <v>1.146376642681062e-06</v>
+        <v>0.8250760057508486</v>
       </c>
       <c r="J10" t="n">
-        <v>3.34347460064431e-06</v>
+        <v>0.5294597732825239</v>
       </c>
       <c r="K10" t="n">
-        <v>2.244925621662686e-06</v>
+        <v>0.6772678895166864</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005690866735935438</v>
+        <v>0.2764203766317861</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001580031383637763</v>
+        <v>0.6329730558591355</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000002242872875</v>
+        <v>-1.024725749212851</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001647296590755086</v>
+        <v>0.6599200292819185</v>
       </c>
       <c r="P10" t="n">
-        <v>163.8012422763146</v>
+        <v>33.82930969410906</v>
       </c>
       <c r="Q10" t="n">
-        <v>247.9036741922204</v>
+        <v>53.33132289200027</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_15</t>
+          <t>model_10_3_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999949459864836</v>
+        <v>0.3249922302350015</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6337366266642328</v>
+        <v>-0.7619169201385734</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999686681476464</v>
+        <v>0.04738501272627338</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999566605509792</v>
+        <v>-4.030421192824704</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999846294164249</v>
+        <v>-0.1643905353465178</v>
       </c>
       <c r="G11" t="n">
-        <v>3.000280745312572e-06</v>
+        <v>0.4007137709498814</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2174297601660139</v>
+        <v>1.045949994642178</v>
       </c>
       <c r="I11" t="n">
-        <v>1.075746187957265e-06</v>
+        <v>0.8561578059522857</v>
       </c>
       <c r="J11" t="n">
-        <v>3.955293268996099e-06</v>
+        <v>0.5078068121628082</v>
       </c>
       <c r="K11" t="n">
-        <v>2.515519728476682e-06</v>
+        <v>0.681982309057547</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0006139354995286371</v>
+        <v>0.2758556923891067</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001732131849863795</v>
+        <v>0.6330195660087304</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000002695473875</v>
+        <v>-1.025023309294996</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001805872288719731</v>
+        <v>0.6599685194648709</v>
       </c>
       <c r="P11" t="n">
-        <v>163.4336093838076</v>
+        <v>33.82901578939706</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.5360412997134</v>
+        <v>53.33102898728827</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_14</t>
+          <t>model_10_3_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.999993872596084</v>
+        <v>0.323757005086724</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6335951192477216</v>
+        <v>-0.7760082064151996</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999708178022684</v>
+        <v>0.02960974896162871</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999474814605649</v>
+        <v>-3.942773491341246</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999822955676232</v>
+        <v>-0.170475264323243</v>
       </c>
       <c r="G12" t="n">
-        <v>3.637491654607182e-06</v>
+        <v>0.4014470539568469</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2175137650812571</v>
+        <v>1.054315190887856</v>
       </c>
       <c r="I12" t="n">
-        <v>1.001940058051506e-06</v>
+        <v>0.8721332325708767</v>
       </c>
       <c r="J12" t="n">
-        <v>4.793005684621571e-06</v>
+        <v>0.4989590242385688</v>
       </c>
       <c r="K12" t="n">
-        <v>2.897472871336538e-06</v>
+        <v>0.6855461284047228</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0006637090842476242</v>
+        <v>0.2765855606299015</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001907220924436176</v>
+        <v>0.6335984958606254</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000003267948755</v>
+        <v>-1.028728984739828</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001988415267681009</v>
+        <v>0.6605720955591111</v>
       </c>
       <c r="P12" t="n">
-        <v>163.0484324394707</v>
+        <v>33.82535924976834</v>
       </c>
       <c r="Q12" t="n">
-        <v>247.1508643553766</v>
+        <v>53.32737244765955</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_13</t>
+          <t>model_10_3_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999925171244609</v>
+        <v>0.3227989918043405</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6334373746685507</v>
+        <v>-0.7857598940651789</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999973153933164</v>
+        <v>0.01981822695309865</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999350762203042</v>
+        <v>-3.903963585903278</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999790817559059</v>
+        <v>-0.1746432157838409</v>
       </c>
       <c r="G13" t="n">
-        <v>4.442158163378976e-06</v>
+        <v>0.4020157720252888</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2176074090776639</v>
+        <v>1.060104213927856</v>
       </c>
       <c r="I13" t="n">
-        <v>9.217314614725874e-07</v>
+        <v>0.8809333124685781</v>
       </c>
       <c r="J13" t="n">
-        <v>5.925146595779478e-06</v>
+        <v>0.4950412738941433</v>
       </c>
       <c r="K13" t="n">
-        <v>3.423439028626033e-06</v>
+        <v>0.6879872931813606</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0007189696104726237</v>
+        <v>0.2770443231510662</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002107642797861861</v>
+        <v>0.634047137068916</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000003990866954</v>
+        <v>-1.031603024586979</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002197369515188898</v>
+        <v>0.661039836352454</v>
       </c>
       <c r="P13" t="n">
-        <v>162.6487404535643</v>
+        <v>33.82252791447798</v>
       </c>
       <c r="Q13" t="n">
-        <v>246.7511723694702</v>
+        <v>53.32454111236919</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999908140552237</v>
+        <v>0.3228169326749701</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6332609556373403</v>
+        <v>-0.7888267743466977</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999755742322146</v>
+        <v>0.01951686375707429</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999186781012951</v>
+        <v>-3.900716321280794</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999747634682951</v>
+        <v>-0.1745945956053383</v>
       </c>
       <c r="G14" t="n">
-        <v>5.453173631378783e-06</v>
+        <v>0.4020051215494778</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2177121390354957</v>
+        <v>1.061924846545295</v>
       </c>
       <c r="I14" t="n">
-        <v>8.386330398365761e-07</v>
+        <v>0.8812041610864877</v>
       </c>
       <c r="J14" t="n">
-        <v>7.421690073055567e-06</v>
+        <v>0.494713471701646</v>
       </c>
       <c r="K14" t="n">
-        <v>4.130161556446071e-06</v>
+        <v>0.6879588163940669</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000780331435549439</v>
+        <v>0.2771644394755561</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002335203124222556</v>
+        <v>0.6340387382088557</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000004899170547</v>
+        <v>-1.03154920197509</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002434617555757582</v>
+        <v>0.6610310799355328</v>
       </c>
       <c r="P14" t="n">
-        <v>162.2386256021722</v>
+        <v>33.82258090054288</v>
       </c>
       <c r="Q14" t="n">
-        <v>246.341057518078</v>
+        <v>53.32459409843409</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_11</t>
+          <t>model_10_3_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999886795060881</v>
+        <v>0.3214645290569587</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6330630819279275</v>
+        <v>-0.7892100187637114</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999779734733799</v>
+        <v>0.011042781744938</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998974222736468</v>
+        <v>-3.885875048856325</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999690885329654</v>
+        <v>-0.1798172897940176</v>
       </c>
       <c r="G15" t="n">
-        <v>6.720334206009019e-06</v>
+        <v>0.4028079667579238</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2178296054171023</v>
+        <v>1.062152356986531</v>
       </c>
       <c r="I15" t="n">
-        <v>7.562576185447242e-07</v>
+        <v>0.8888201985831616</v>
       </c>
       <c r="J15" t="n">
-        <v>9.36156318920594e-06</v>
+        <v>0.4932152871661126</v>
       </c>
       <c r="K15" t="n">
-        <v>5.058910403875332e-06</v>
+        <v>0.6910177428746371</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0008487344582720931</v>
+        <v>0.2774758070552009</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00259236073994516</v>
+        <v>0.6346715424201118</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000006037596753</v>
+        <v>-1.035606412829124</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00270272290357115</v>
+        <v>0.6616908239321474</v>
       </c>
       <c r="P15" t="n">
-        <v>161.8207453432576</v>
+        <v>33.81859067977526</v>
       </c>
       <c r="Q15" t="n">
-        <v>245.9231772591635</v>
+        <v>53.32060387766647</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_10</t>
+          <t>model_10_3_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999859979344298</v>
+        <v>0.3208278234481035</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6328429722733175</v>
+        <v>-0.7918626879253614</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999806392826861</v>
+        <v>0.007306814580941512</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998694205784336</v>
+        <v>-3.878926884575083</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999615606592208</v>
+        <v>-0.1820849084023175</v>
       </c>
       <c r="G16" t="n">
-        <v>8.312230980213937e-06</v>
+        <v>0.4031859427115904</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2179602720163208</v>
+        <v>1.063727095990228</v>
       </c>
       <c r="I16" t="n">
-        <v>6.647298605731734e-07</v>
+        <v>0.8921778798006187</v>
       </c>
       <c r="J16" t="n">
-        <v>1.191708521589184e-05</v>
+        <v>0.4925138896053927</v>
       </c>
       <c r="K16" t="n">
-        <v>6.290907538232506e-06</v>
+        <v>0.6923458847030057</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0009246397324265895</v>
+        <v>0.277703451558266</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002883093994342525</v>
+        <v>0.6349692454848427</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000007467768304</v>
+        <v>-1.03751652965569</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003005833274509014</v>
+        <v>0.6620012008326742</v>
       </c>
       <c r="P16" t="n">
-        <v>161.3955650315771</v>
+        <v>33.81671485427865</v>
       </c>
       <c r="Q16" t="n">
-        <v>245.4979969474829</v>
+        <v>53.31872805216986</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_9</t>
+          <t>model_10_3_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999826410916496</v>
+        <v>0.3205649238351598</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6325968514409508</v>
+        <v>-0.7966936187499614</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999833618581009</v>
+        <v>0.005700957956065844</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998332144885417</v>
+        <v>-3.875431186080765</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999517511695073</v>
+        <v>-0.1830157402535055</v>
       </c>
       <c r="G17" t="n">
-        <v>1.030499786260813e-05</v>
+        <v>0.4033420112785057</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2181063799742801</v>
+        <v>1.066594945213056</v>
       </c>
       <c r="I17" t="n">
-        <v>5.712530979880135e-07</v>
+        <v>0.8936211351587589</v>
       </c>
       <c r="J17" t="n">
-        <v>1.522136588584923e-05</v>
+        <v>0.4921610087151774</v>
       </c>
       <c r="K17" t="n">
-        <v>7.896309491918622e-06</v>
+        <v>0.6928910719369681</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001009049629246168</v>
+        <v>0.2777998132895731</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003210139850942343</v>
+        <v>0.635092128181814</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000009258084454</v>
+        <v>-1.03830522849452</v>
       </c>
       <c r="O17" t="n">
-        <v>0.00334680215030254</v>
+        <v>0.6621293149004579</v>
       </c>
       <c r="P17" t="n">
-        <v>160.9657631020699</v>
+        <v>33.81594082744875</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.0681950179758</v>
+        <v>53.31795402533996</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_8</t>
+          <t>model_10_3_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999784616236435</v>
+        <v>0.320488240063074</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6323201499753834</v>
+        <v>-0.804646301026211</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999859936776361</v>
+        <v>0.004964753044943482</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997873529519025</v>
+        <v>-3.873309546990067</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999392400033712</v>
+        <v>-0.1833977512639322</v>
       </c>
       <c r="G18" t="n">
-        <v>1.278611061465996e-05</v>
+        <v>0.4033875340781823</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2182706419171218</v>
+        <v>1.071316000950224</v>
       </c>
       <c r="I18" t="n">
-        <v>4.808923430442744e-07</v>
+        <v>0.8942827955250751</v>
       </c>
       <c r="J18" t="n">
-        <v>1.94068327358745e-05</v>
+        <v>0.4919468352410468</v>
       </c>
       <c r="K18" t="n">
-        <v>9.943862539459386e-06</v>
+        <v>0.6931148153830609</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001102695968186948</v>
+        <v>0.2778354689486824</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003575767136526086</v>
+        <v>0.6351279666950451</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000011487134057</v>
+        <v>-1.038535279810778</v>
       </c>
       <c r="O18" t="n">
-        <v>0.003727994946386404</v>
+        <v>0.6621666791333931</v>
       </c>
       <c r="P18" t="n">
-        <v>160.5343021688491</v>
+        <v>33.81571511215179</v>
       </c>
       <c r="Q18" t="n">
-        <v>244.636734084755</v>
+        <v>53.31772831004299</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_7</t>
+          <t>model_10_3_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999732387617933</v>
+        <v>0.3204609406276847</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6320112315116568</v>
+        <v>-0.8183074133817314</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999886601122882</v>
+        <v>0.004433346929520243</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9997283911784062</v>
+        <v>-3.871628480839201</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999230798263937</v>
+        <v>-0.1836605992911888</v>
       </c>
       <c r="G19" t="n">
-        <v>1.588662702475358e-05</v>
+        <v>0.4034037402023036</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2184540292617727</v>
+        <v>1.079425827373787</v>
       </c>
       <c r="I19" t="n">
-        <v>3.893431144836095e-07</v>
+        <v>0.8947603940301673</v>
       </c>
       <c r="J19" t="n">
-        <v>2.478786805374591e-05</v>
+        <v>0.4917771363608966</v>
       </c>
       <c r="K19" t="n">
-        <v>1.258860558411476e-05</v>
+        <v>0.6932687651955319</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001206826833233209</v>
+        <v>0.2778653331919221</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003985803184397541</v>
+        <v>0.6351407247235085</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000014272660377</v>
+        <v>-1.038617178116946</v>
       </c>
       <c r="O19" t="n">
-        <v>0.00415548707770738</v>
+        <v>0.6621799802975409</v>
       </c>
       <c r="P19" t="n">
-        <v>160.1000657405189</v>
+        <v>33.81563476361733</v>
       </c>
       <c r="Q19" t="n">
-        <v>244.2024976564248</v>
+        <v>53.31764796150854</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_6</t>
+          <t>model_10_3_20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999667061951742</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6316652726989996</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999913112022396</v>
+        <v>-0.05802167878204667</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9996525458442985</v>
+        <v>-3.900685260979934</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999022105219396</v>
+        <v>-0.2340826911453615</v>
       </c>
       <c r="G20" t="n">
-        <v>1.976464076206335e-05</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2186594053576085</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I20" t="n">
-        <v>2.983207300747009e-07</v>
+        <v>0.950891526227591</v>
       </c>
       <c r="J20" t="n">
-        <v>3.170974976332682e-05</v>
+        <v>0.4947103362519967</v>
       </c>
       <c r="K20" t="n">
-        <v>1.600403524670076e-05</v>
+        <v>0.7228009312397938</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001322538570362282</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004445744117924844</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000017756695907</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004635008648983928</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P20" t="n">
-        <v>159.6632320736785</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q20" t="n">
-        <v>243.7656639895844</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_5</t>
+          <t>model_10_3_21</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999585384757446</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6312790310264984</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999937714493579</v>
+        <v>-0.05802167878204667</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9995548794962957</v>
+        <v>-3.900685260979934</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998752370076138</v>
+        <v>-0.2340826911453615</v>
       </c>
       <c r="G21" t="n">
-        <v>2.461335184263573e-05</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2188886950991767</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I21" t="n">
-        <v>2.138507335654387e-07</v>
+        <v>0.950891526227591</v>
       </c>
       <c r="J21" t="n">
-        <v>4.062308524844947e-05</v>
+        <v>0.4947103362519967</v>
       </c>
       <c r="K21" t="n">
-        <v>2.041846799100745e-05</v>
+        <v>0.7228009312397938</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001450782606694505</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M21" t="n">
-        <v>0.004961184520115709</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000022112812936</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O21" t="n">
-        <v>0.005172392416204783</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P21" t="n">
-        <v>159.22444300887</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q21" t="n">
-        <v>243.3268749247758</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_4</t>
+          <t>model_10_3_22</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999483676514345</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6308422093014554</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999957094019715</v>
+        <v>-0.05802167878204667</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9994314001218656</v>
+        <v>-3.900685260979934</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998410114524419</v>
+        <v>-0.2340826911453615</v>
       </c>
       <c r="G22" t="n">
-        <v>3.065119250982713e-05</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2191480113448783</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I22" t="n">
-        <v>1.47313169396212e-07</v>
+        <v>0.950891526227591</v>
       </c>
       <c r="J22" t="n">
-        <v>5.189219802163399e-05</v>
+        <v>0.4947103362519967</v>
       </c>
       <c r="K22" t="n">
-        <v>2.60197555955151e-05</v>
+        <v>0.7228009312397938</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001593441764012257</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005536351913473991</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000027537252568</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005772045876258971</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P22" t="n">
-        <v>158.7856779780072</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q22" t="n">
-        <v>242.8881098939131</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_3</t>
+          <t>model_10_3_23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999356309728205</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6303530405648134</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999969077482763</v>
+        <v>-0.05802167878204667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9992721443343215</v>
+        <v>-3.900685260979934</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9997967330442612</v>
+        <v>-0.2340826911453615</v>
       </c>
       <c r="G23" t="n">
-        <v>3.821223513095541e-05</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H23" t="n">
-        <v>0.219438403037938</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I23" t="n">
-        <v>1.06169209734611e-07</v>
+        <v>0.950891526227591</v>
       </c>
       <c r="J23" t="n">
-        <v>6.64263778220949e-05</v>
+        <v>0.4947103362519967</v>
       </c>
       <c r="K23" t="n">
-        <v>3.326627351591476e-05</v>
+        <v>0.7228009312397938</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001754045677086503</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M23" t="n">
-        <v>0.006181604575751785</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000034330147829</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006444768280227079</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P23" t="n">
-        <v>158.3447096044956</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q23" t="n">
-        <v>242.4471415204015</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_2</t>
+          <t>model_10_3_24</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999196959030072</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6298008132299326</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999968188776568</v>
+        <v>-0.05802167878204667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9990674663101605</v>
+        <v>-3.900685260979934</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9997396548678741</v>
+        <v>-0.2340826911453615</v>
       </c>
       <c r="G24" t="n">
-        <v>4.767198093124717e-05</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2197662290389021</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I24" t="n">
-        <v>1.092204889598894e-07</v>
+        <v>0.950891526227591</v>
       </c>
       <c r="J24" t="n">
-        <v>8.510593258262279e-05</v>
+        <v>0.4947103362519967</v>
       </c>
       <c r="K24" t="n">
-        <v>4.260757653579134e-05</v>
+        <v>0.7228009312397938</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001952812615416552</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006904489911010601</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00004282885173</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O24" t="n">
-        <v>0.007198428340786799</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P24" t="n">
-        <v>157.9023334690374</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q24" t="n">
-        <v>242.0047653849432</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_1</t>
+          <t>model_10_3_19</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998995409203084</v>
+        <v>0.3083752261994309</v>
       </c>
       <c r="C25" t="n">
-        <v>0.629185039130113</v>
+        <v>-2.311307775314281</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999941749234403</v>
+        <v>-0.05786904276922455</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9987961565198828</v>
+        <v>-3.892939780860937</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9996637302342345</v>
+        <v>-0.2332981027672578</v>
       </c>
       <c r="G25" t="n">
-        <v>5.963684931117824e-05</v>
+        <v>0.4105783423625943</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2201317791446111</v>
+        <v>1.965735336474422</v>
       </c>
       <c r="I25" t="n">
-        <v>1.999978754157904e-07</v>
+        <v>0.9507543453984073</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001098665101059421</v>
+        <v>0.4939284519092884</v>
       </c>
       <c r="K25" t="n">
-        <v>5.503325399067896e-05</v>
+        <v>0.7223413986538478</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002181828601120134</v>
+        <v>0.2699257922364688</v>
       </c>
       <c r="M25" t="n">
-        <v>0.007722489838852379</v>
+        <v>0.6407638741085474</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000053578175836</v>
+        <v>-1.074874321401707</v>
       </c>
       <c r="O25" t="n">
-        <v>0.008051252219050087</v>
+        <v>0.6680425187934248</v>
       </c>
       <c r="P25" t="n">
-        <v>157.4544737958286</v>
+        <v>33.78037704420915</v>
       </c>
       <c r="Q25" t="n">
-        <v>241.5569057117344</v>
+        <v>53.28239024210036</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_0</t>
+          <t>model_10_3_18</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998739356772837</v>
+        <v>0.3085118454566367</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6285019771262816</v>
+        <v>-2.386482604350273</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999864850530277</v>
+        <v>-0.05714192800587092</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9984333897118398</v>
+        <v>-3.894101886573309</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9995617760258467</v>
+        <v>-0.2328403766972589</v>
       </c>
       <c r="G26" t="n">
-        <v>7.483722765962133e-05</v>
+        <v>0.4104972392698724</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2205372742568276</v>
+        <v>2.010362362373713</v>
       </c>
       <c r="I26" t="n">
-        <v>4.640214859247183e-07</v>
+        <v>0.9501008547555087</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001429737402735066</v>
+        <v>0.4940457631988555</v>
       </c>
       <c r="K26" t="n">
-        <v>7.171888087971564e-05</v>
+        <v>0.722073308977182</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00244379278205252</v>
+        <v>0.2700465007037047</v>
       </c>
       <c r="M26" t="n">
-        <v>0.008650851267917009</v>
+        <v>0.6407005847272752</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000067234305449</v>
+        <v>-1.07446446363009</v>
       </c>
       <c r="O26" t="n">
-        <v>0.009019135916123086</v>
+        <v>0.6679765350521648</v>
       </c>
       <c r="P26" t="n">
-        <v>157.0003902016183</v>
+        <v>33.78077215079763</v>
       </c>
       <c r="Q26" t="n">
-        <v>241.1028221175242</v>
+        <v>53.28278534868884</v>
       </c>
     </row>
   </sheetData>
